--- a/biology/Botanique/Cerisier_de_Virginie/Cerisier_de_Virginie.xlsx
+++ b/biology/Botanique/Cerisier_de_Virginie/Cerisier_de_Virginie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus virginiana
 Le Cerisier de Virginie, aussi appelé « cerisier à grappes » ou « cerisier sauvage » (Prunus virginiana), est une espèce de plantes à fleurs de la famille des Rosaceae.
@@ -513,14 +525,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le fruit est mûr à la mi-août au Canada. Les fruits sont de petites drupes rouges regroupées en grappes, d'où le nom courant de « cerisier à grappes »[1]. La cerise à grappe est légèrement amère et astringente (rend la bouche pâteuse). Ce fruit est souvent consommé avec du sel afin d'en diminuer l'effet astringent. Il peut être liquéfié ou macéré; fermenté et produire un nectar bio sans égaler toutefois une vraie culture.
-Lors de sa floraison, il produit des fleurs à 5 pétales[2].
-Les feuilles et les tiges du cerisier de Virginie sont toxiques pour le bétail[3].
-Variétés
-Prunus virginiana var. virginiana. Nord-est américain[1]
-Prunus virginiana var. demissa. Ouest américain</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est mûr à la mi-août au Canada. Les fruits sont de petites drupes rouges regroupées en grappes, d'où le nom courant de « cerisier à grappes ». La cerise à grappe est légèrement amère et astringente (rend la bouche pâteuse). Ce fruit est souvent consommé avec du sel afin d'en diminuer l'effet astringent. Il peut être liquéfié ou macéré; fermenté et produire un nectar bio sans égaler toutefois une vraie culture.
+Lors de sa floraison, il produit des fleurs à 5 pétales.
+Les feuilles et les tiges du cerisier de Virginie sont toxiques pour le bétail.
+</t>
         </is>
       </c>
     </row>
@@ -545,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prunus virginiana var. virginiana. Nord-est américain
+Prunus virginiana var. demissa. Ouest américain</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cerisier_de_Virginie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cerisier_de_Virginie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
